--- a/mentorship_program_project/test.xlsx
+++ b/mentorship_program_project/test.xlsx
@@ -46,10 +46,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -467,7 +470,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -475,7 +478,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -483,7 +486,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,7 +504,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -509,7 +512,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -517,7 +520,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +530,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -535,7 +538,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -543,7 +546,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -551,7 +554,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -561,7 +564,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -656,12 +659,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Program Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Active Mentees</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Unassigned Mentees</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inactive Mentees</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Active Mentors</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Unassigned Mentors</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Inactive Mentors</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mentees Per Mentor</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mentor Retention Rate</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mentor Turnover Rate</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Approved Mentorships</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Requested Mentorships</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Successful Match Rate</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pending Mentor</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
